--- a/medicine/Médecine vétérinaire/Maladie_entérique_de_la_bouche_rouge/Maladie_entérique_de_la_bouche_rouge.xlsx
+++ b/medicine/Médecine vétérinaire/Maladie_entérique_de_la_bouche_rouge/Maladie_entérique_de_la_bouche_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie entérique de la bouche rouge (en anglais : Enteric redmouth disease, ERM) ou plus simplement maladie de la bouche rouge (redmouth disease) est une maladie (yersiniose) des poissons d'élevage.
-C'est une infection bactérienne chronique ou aiguë, qui peut à la fois toucher des poissons d'eau douce et d'eau de mer, ou des poissons amphihalins comme les saumons.  Les salmonidés sont largement les plus fréquemment touchés[1] (truite arc-en ciel en particulier), mais quelques cas de bar ou turbot de sable infectés ont été signalés dans des élevages en eau de mer. 
-L'agent causal est la bactérie Yersinia ruckeri. La maladie n'est pas transmissible à l'homme[2]. 
+C'est une infection bactérienne chronique ou aiguë, qui peut à la fois toucher des poissons d'eau douce et d'eau de mer, ou des poissons amphihalins comme les saumons.  Les salmonidés sont largement les plus fréquemment touchés (truite arc-en ciel en particulier), mais quelques cas de bar ou turbot de sable infectés ont été signalés dans des élevages en eau de mer. 
+L'agent causal est la bactérie Yersinia ruckeri. La maladie n'est pas transmissible à l'homme. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie semble avoir été décrite pour la première en Idaho chez la truite arc-en-ciel dans les années 1950[2]. La bactérie a d'abord été trouvé dans la bouche de  truites arc-en-ciel (Oncorhynchus mykiss) infectées, puis chez d'autres salmonidés. Des isolats différents avec forme flagellées (ou non flagellées parfois, surtout au Royaume-Uni) ont ensuite été trouvées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie semble avoir été décrite pour la première en Idaho chez la truite arc-en-ciel dans les années 1950. La bactérie a d'abord été trouvé dans la bouche de  truites arc-en-ciel (Oncorhynchus mykiss) infectées, puis chez d'autres salmonidés. Des isolats différents avec forme flagellées (ou non flagellées parfois, surtout au Royaume-Uni) ont ensuite été trouvées.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,7 +614,9 @@
           <t>Transmission, incubation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des infections peuvent apparaitre de manière cyclique dans les élevages, éventuellement via les excréments contaminants de porteurs asymptomatiques.
 </t>
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,7 +647,9 @@
           <t>Mortalité et morbidité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un portage asymptomatique est possible, mais dans les cas graves, 25 à 75 % des poissons d'une pisciculture peuvent mourir. 
 </t>
@@ -640,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,7 +680,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il repose d'abord sur l'historique des symptômes et les signes cliniques, mais il ne peut être confirmé et définitif qu'au vu d'analyses de cultures bactériennes et de tests sérologiques (test Elisa par exemple). 
 </t>
@@ -671,7 +695,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -689,10 +713,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Traitement préventif : Il existe aujourd'hui des vaccins contre cette maladie. Par ailleurs la bactérie se développant presque toujours dans des eaux sales et/ou insuffisamment renouvelées. Une approche préventive consiste à veiller à la constance de la bonne qualité de l'eau des pisciculture en à éviter les surpopulation qui facilitent la contagion entre les individus.
-Traitement curatif : Ce sont généralemnet des antibiotiques (médicaments vétérinaires). 'acide oxolinique (Quinolone) est l'un des produits qui ont été testés pour réduire la maladie[4]</t>
+Traitement curatif : Ce sont généralemnet des antibiotiques (médicaments vétérinaires). 'acide oxolinique (Quinolone) est l'un des produits qui ont été testés pour réduire la maladie</t>
         </is>
       </c>
     </row>
@@ -702,7 +728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -720,9 +746,11 @@
           <t>Poids économique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sinon, les poissons grandissent moins vite et perdent de leur valeur en termes de rentabilité[5], dont en raison du coût des médicaments.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sinon, les poissons grandissent moins vite et perdent de leur valeur en termes de rentabilité, dont en raison du coût des médicaments.
 </t>
         </is>
       </c>
@@ -733,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,9 +779,11 @@
           <t>Symptômes et lésions</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En infectant volontairement des truites (par voies parentérale et orale), on a montré qu'un portage asymptomatique est possible durant plusieurs semaines[6]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En infectant volontairement des truites (par voies parentérale et orale), on a montré qu'un portage asymptomatique est possible durant plusieurs semaines
 Avec une dose moyenne de 30 bactéries constituant une DL50 lorsque administrée par voie parentérale, on a obtenu une infection asymptomatique de l’intestin inférieur chez 25 % des survivants, 45 jours après infection, à 14.5 C (pour un suivi du cours clinique de la maladie qui a perduré 102 jours après l'inoculation). Dans le cas, les excréments peuvent contaminer d'autres poissons avec des infections parfois mortelles, périodiques au sein de la population, avec des cycles de 30 à 40 jours. Après convalescence les poissons qui ne sont pas morts guérissent..
 Le poisson malade a un comportement anormal, avec notamment une perte d'appétit. Les symptômes caractéristiques et visibles sont ceux d'une septicémie hémorragique de la bouche (sous-cutanée, d'où le nom de bouche rouge) avec parfois atteinte des ouïes et de yeux . 
 </t>
@@ -766,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Maladie_ent%C3%A9rique_de_la_bouche_rouge</t>
+          <t>Maladie_entérique_de_la_bouche_rouge</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -784,9 +814,11 @@
           <t>Distribution de la maladie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces semblent jouer un rôle de vecteur épidémiologique, et semblent avoir transporté ce pathogène dans le monde entier[2]. Ce serait par exemple le cas de Pimephales promelas, un petit poisson américain récemment introduit en Europe, et qui semble être l'origine de toutes les épidémies européennes [7]. D'autres vecteurs sont le poisson rouge (Carassius auratus), les saumons (saumon atlantique, saumon pacifique (Salmo salar), le méné émeraude (Notropis atherinoides), et les espèces de Coregonus spp. maintenues en élevage. La mondialisation des échanges et la diffusion des souches d'élevage semble avoir contribué à diffuser le pathogène dans le monde : Des infections ont aussi été trouvées dans des fermes d'élevage de turbot (Scophthalmus maximus ou encore du Bar commun (Dicentrarchus labrax) ou la daurade royale (Sparus aurata)[2], et la bactérie est maintenant trouvée presque partout sur la planète (Amérique du nord et du sud, Afrique, Asie, Australie comme en Europe), avec un risque d'antibiorésistance.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces semblent jouer un rôle de vecteur épidémiologique, et semblent avoir transporté ce pathogène dans le monde entier. Ce serait par exemple le cas de Pimephales promelas, un petit poisson américain récemment introduit en Europe, et qui semble être l'origine de toutes les épidémies européennes . D'autres vecteurs sont le poisson rouge (Carassius auratus), les saumons (saumon atlantique, saumon pacifique (Salmo salar), le méné émeraude (Notropis atherinoides), et les espèces de Coregonus spp. maintenues en élevage. La mondialisation des échanges et la diffusion des souches d'élevage semble avoir contribué à diffuser le pathogène dans le monde : Des infections ont aussi été trouvées dans des fermes d'élevage de turbot (Scophthalmus maximus ou encore du Bar commun (Dicentrarchus labrax) ou la daurade royale (Sparus aurata), et la bactérie est maintenant trouvée presque partout sur la planète (Amérique du nord et du sud, Afrique, Asie, Australie comme en Europe), avec un risque d'antibiorésistance.
 Il existe des facteurs de prédisposition génétique. Mais face à des lots de nombreuses truites génétiquement modifiées ou sélectionnées pour leurs traits de résistance, on ne sait pas si la bactérie dont il existe maintenant de nombreuses souches de par le monde ne pourrait pas rapidement évoluer et contourner cette résistance.
 </t>
         </is>
